--- a/biology/Médecine/Liste_des_maladies_à_déclaration_obligatoire_en_France/Liste_des_maladies_à_déclaration_obligatoire_en_France.xlsx
+++ b/biology/Médecine/Liste_des_maladies_à_déclaration_obligatoire_en_France/Liste_des_maladies_à_déclaration_obligatoire_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_%C3%A0_d%C3%A9claration_obligatoire_en_France</t>
+          <t>Liste_des_maladies_à_déclaration_obligatoire_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des maladies à déclaration obligatoire en France comprend 36 maladies à déclaration obligatoire (MDO)[1]. Elle est valable en France métropolitaine et ultramarine (outre-mer).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des maladies à déclaration obligatoire en France comprend 36 maladies à déclaration obligatoire (MDO). Elle est valable en France métropolitaine et ultramarine (outre-mer).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_%C3%A0_d%C3%A9claration_obligatoire_en_France</t>
+          <t>Liste_des_maladies_à_déclaration_obligatoire_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Liste des MDO</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>37 maladies sont à déclaration obligatoire en France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>37 maladies sont à déclaration obligatoire en France.
 Elles sont pour la plupart (35 sur 37) de nature infectieuse :
 Botulisme
 Brucellose
 COVID-19 selon un arrêté du 30 juin 2023 publié au Journal officiel
 Charbon
-Chikungunya (le décret du 19 décembre 2008 institue la déclaration obligatoire du chikungunya à la Réunion[3])
+Chikungunya (le décret du 19 décembre 2008 institue la déclaration obligatoire du chikungunya à la Réunion)
 Choléra
 Dengue
 Diphtérie
@@ -552,7 +566,7 @@
 Zika
 Mais d'autres maladies, non infectieuses, sont également à déclaration obligatoire :
 Saturnisme (chez les enfants mineurs)
-Mésothéliomes (d'abord dans 6 régions de France, à partir de janvier 2011[4]), obligatoire depuis le 16 janvier 2012[5].</t>
+Mésothéliomes (d'abord dans 6 régions de France, à partir de janvier 2011), obligatoire depuis le 16 janvier 2012.</t>
         </is>
       </c>
     </row>
@@ -562,7 +576,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_%C3%A0_d%C3%A9claration_obligatoire_en_France</t>
+          <t>Liste_des_maladies_à_déclaration_obligatoire_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,9 +594,11 @@
           <t>Déclaration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle est faite auprès de l'Agence régionale de santé[6]. Ce dispositif de surveillance, garantissant l'anonymat des personnes, repose sur la transmission de données par les[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle est faite auprès de l'Agence régionale de santé. Ce dispositif de surveillance, garantissant l'anonymat des personnes, repose sur la transmission de données par les :
 médecins et biologistes, libéraux et hospitaliers,
 médecins inspecteurs de santé publique (MISP) et leurs collaborateurs des Directions départementales des affaires sanitaires et sociales (DDASS)
 épidémiologistes de Santé Publique France (anciennement issus de l'Institut de veille sanitaire).</t>
